--- a/1_Spreadsheets_Intro/1_Worksheets.xlsx
+++ b/1_Spreadsheets_Intro/1_Worksheets.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\1_Spreadsheets_Intro\1_Worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\1_Spreadsheets_Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086AD7B1-96AF-4BCE-938C-3176F95A0919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96D0822-62C2-4EBE-A43A-A292A52AC7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D15BFCA0-C9DE-46D7-84D4-5CA68B4322C1}"/>
+    <workbookView xWindow="288" yWindow="1182" windowWidth="18120" windowHeight="10800" xr2:uid="{D15BFCA0-C9DE-46D7-84D4-5CA68B4322C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Original" sheetId="2" r:id="rId1"/>
-    <sheet name="Final" sheetId="4" r:id="rId2"/>
+    <sheet name="Original" sheetId="7" r:id="rId1"/>
+    <sheet name="Final" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,37 +37,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
-  <si>
-    <t>Job Title</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Openings</t>
-  </si>
-  <si>
-    <t>Posting Date</t>
-  </si>
-  <si>
-    <t>Total Applications</t>
-  </si>
-  <si>
-    <t>Data Analyst</t>
-  </si>
-  <si>
-    <t>Data Scientist</t>
-  </si>
-  <si>
-    <t>Data Engineer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Difficulty (1-10)</t>
+  </si>
+  <si>
+    <t>Difficulty (1-5)</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Power BI</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Date Started</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>Skill &amp; Level</t>
+  </si>
+  <si>
+    <t>Skill Known</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,23 +105,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -108,28 +153,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,88 +550,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD01CE1-447B-4580-AD72-8A7C73FE71DB}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE8D855-8EF5-4360-95E9-388A9F704867}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.83984375" customWidth="1"/>
+    <col min="4" max="4" width="11.05078125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.62890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>70000</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45479</v>
-      </c>
-      <c r="E2">
-        <v>150</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>90000</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45477</v>
-      </c>
-      <c r="E3">
-        <v>250</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>85000</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45474</v>
-      </c>
-      <c r="E4">
-        <v>225</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -549,71 +717,236 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52ECFE2-081D-408D-9585-829D17B1B015}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C6B7D2-4C47-4F63-B23B-90116A3FAD21}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.83984375" customWidth="1"/>
+    <col min="4" max="4" width="11.05078125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.62890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B2" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>37042</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6">
+        <f>B2*2</f>
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="str">
+        <f>A2&amp;"-"&amp;E2</f>
+        <v>Excel-Advanced</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>70000</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43281</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F7" si="0">B3*2</f>
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="str">
+        <f t="shared" ref="G3:G7" si="1">A3&amp;"-"&amp;E3</f>
+        <v>Python-Advanced</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
-        <v>45479</v>
-      </c>
-      <c r="E2" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43708</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>95000</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="G4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Power BI-Intermediate</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
-        <v>45477</v>
-      </c>
-      <c r="E3" s="2">
-        <v>250</v>
-      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43769</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>SQL-Advanced</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43889</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f>A6&amp;"-"&amp;E6</f>
+        <v>Tableau-Beginner</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
